--- a/Ecopulper/my_graphs/Value Added Change by Activities.xlsx
+++ b/Ecopulper/my_graphs/Value Added Change by Activities.xlsx
@@ -468,25 +468,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.001533231180474104</v>
+        <v>0.01440544289152083</v>
       </c>
       <c r="C2">
-        <v>0.01142822449764935</v>
+        <v>0.1073736547031745</v>
       </c>
       <c r="D2">
-        <v>0.007081539522914682</v>
+        <v>0.06653446295675443</v>
       </c>
       <c r="E2">
-        <v>0.121987899299711</v>
+        <v>1.146134868112449</v>
       </c>
       <c r="F2">
-        <v>0.03193436865694821</v>
+        <v>0.3000387220289837</v>
       </c>
       <c r="G2">
-        <v>0.02240598030039109</v>
+        <v>0.2105149397927185</v>
       </c>
       <c r="H2">
-        <v>0.01017485747433966</v>
+        <v>0.09559766990300879</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,22 +500,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>5.866612582394737E-07</v>
+        <v>5.51196411856381E-06</v>
       </c>
       <c r="C3">
-        <v>1.125790095102275E-05</v>
+        <v>0.0001057733832273152</v>
       </c>
       <c r="D3">
-        <v>6.75669070915319E-06</v>
+        <v>6.348235242403462E-05</v>
       </c>
       <c r="E3">
-        <v>0.000120957352919504</v>
+        <v>0.001136452390208142</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.053548996627796E-05</v>
+        <v>0.0001929407852683653</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.03904826904044967</v>
+        <v>0.366877230804164</v>
       </c>
       <c r="C4">
-        <v>0.1174286746027065</v>
+        <v>1.103298763656236</v>
       </c>
       <c r="D4">
-        <v>0.2875624126390903</v>
+        <v>2.70178689670232</v>
       </c>
       <c r="E4">
-        <v>0.003335859248181805</v>
+        <v>0.03134199884910718</v>
       </c>
       <c r="F4">
-        <v>0.0003111827172688209</v>
+        <v>0.002923710996444861</v>
       </c>
       <c r="G4">
-        <v>0.01758581577450968</v>
+        <v>0.1652271803930902</v>
       </c>
       <c r="H4">
-        <v>0.7213166002766229</v>
+        <v>6.777115691567005</v>
       </c>
       <c r="I4">
-        <v>0.05938921436609235</v>
+        <v>0.5579901757923332</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.489658801456244E-07</v>
+        <v>6.097345947590611E-06</v>
       </c>
       <c r="D5">
-        <v>8.700362741365097E-07</v>
+        <v>8.174408412924094E-06</v>
       </c>
       <c r="E5">
-        <v>1.372788665321423E-05</v>
+        <v>0.0001289800844925412</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.034465069300495E-06</v>
+        <v>1.911477586931142E-05</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.451355558401701E-06</v>
+        <v>1.363618212185202E-05</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -596,13 +596,13 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.008944738930949825</v>
+        <v>0.08404011573096046</v>
       </c>
       <c r="C6">
-        <v>1.516970991331618</v>
+        <v>14.25267060963639</v>
       </c>
       <c r="D6">
-        <v>1.943926035826735</v>
+        <v>18.26411819108937</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>48.82928598677972</v>
+        <v>458.7745799030691</v>
       </c>
       <c r="I6">
-        <v>1.304373231332647</v>
+        <v>12.25521260752126</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -628,13 +628,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.0004756437882527109</v>
+        <v>0.00446890169965258</v>
       </c>
       <c r="C7">
-        <v>0.0003470369061773226</v>
+        <v>0.003260578311250911</v>
       </c>
       <c r="D7">
-        <v>0.001752094241510349</v>
+        <v>0.01646176640422565</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.3237074005737668</v>
+        <v>3.041386407942814</v>
       </c>
       <c r="I7">
-        <v>0.03416847500420772</v>
+        <v>0.3210292235325335</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -660,13 +660,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04693937813021876</v>
+        <v>0.4410179884349077</v>
       </c>
       <c r="C8">
-        <v>0.03415585038487734</v>
+        <v>0.3209106091741073</v>
       </c>
       <c r="D8">
-        <v>0.1721198730219839</v>
+        <v>1.61714882458059</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.4590901085921359</v>
+        <v>4.313371933475241</v>
       </c>
       <c r="I8">
-        <v>0.04313330779791613</v>
+        <v>0.405258130749165</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -692,13 +692,13 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.720341592204022E-05</v>
+        <v>0.0001616343502272105</v>
       </c>
       <c r="C9">
-        <v>1.255073706829535E-05</v>
+        <v>0.0001179201991104276</v>
       </c>
       <c r="D9">
-        <v>6.33432298968728E-05</v>
+        <v>0.0005951400496314703</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0004087286652065814</v>
+        <v>0.003840201999375131</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -724,13 +724,13 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2784772778895785</v>
+        <v>2.616427694865977</v>
       </c>
       <c r="C10">
-        <v>0.1613309750273402</v>
+        <v>1.515781949249874</v>
       </c>
       <c r="D10">
-        <v>0.03321148996269585</v>
+        <v>0.3120378897147096</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -742,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.212367739273759</v>
+        <v>11.39077684699182</v>
       </c>
       <c r="I10">
-        <v>0.0979767011272088</v>
+        <v>0.9205381359066677</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.1811475689755753</v>
+        <v>1.701968361358638</v>
       </c>
       <c r="C11">
-        <v>0.4792807919438928</v>
+        <v>4.503073095093006</v>
       </c>
       <c r="D11">
-        <v>0.562940348230768</v>
+        <v>5.289094782995216</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.606206255266443</v>
+        <v>24.48655874723076</v>
       </c>
       <c r="I11">
-        <v>0.1182811211037915</v>
+        <v>1.111307907708251</v>
       </c>
       <c r="J11">
         <v>0</v>
